--- a/data/01Pakistan.xlsx
+++ b/data/01Pakistan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-03-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-26</t>
   </si>
 </sst>
 </file>
@@ -229,10 +232,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,6 +755,23 @@
         <v>21</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1102</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1073</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
